--- a/biology/Botanique/Cortinarius/Cortinarius.xlsx
+++ b/biology/Botanique/Cortinarius/Cortinarius.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cortinarius
-Le genre Cortinarius, regroupant les Cortinaires (nom normalisé français), est le plus vaste et le plus méconnu des genres d'Agarics, rattaché à la famille des Cortinariaceae (Cortinariacées) caractérisés par la présence fréquente d'une « cortine », reste de voile partiel aranéeux (c’est-à-dire rappelant une toile d'araignée) qui relie la marge du chapeau (hyménophore) au sommet du stipe, et par ses spores ornementées, brun cannelle à brun fuligineux (brun bistre, couleur de suie) visibles sur le stipe au niveau des restes du voile disposé en guirlande[1].
-Environ 2 000 noms (taxons) de Cortinaires ont été publiés, sans doute sur des bases peu solides et en ayant sous-estimé le caractère ubiquiste des champignons en général, et des Cortinaires en particulier[2].
+Le genre Cortinarius, regroupant les Cortinaires (nom normalisé français), est le plus vaste et le plus méconnu des genres d'Agarics, rattaché à la famille des Cortinariaceae (Cortinariacées) caractérisés par la présence fréquente d'une « cortine », reste de voile partiel aranéeux (c’est-à-dire rappelant une toile d'araignée) qui relie la marge du chapeau (hyménophore) au sommet du stipe, et par ses spores ornementées, brun cannelle à brun fuligineux (brun bistre, couleur de suie) visibles sur le stipe au niveau des restes du voile disposé en guirlande.
+Environ 2 000 noms (taxons) de Cortinaires ont été publiés, sans doute sur des bases peu solides et en ayant sous-estimé le caractère ubiquiste des champignons en général, et des Cortinaires en particulier.
 </t>
         </is>
       </c>
@@ -513,12 +525,14 @@
           <t>Quelques exemples européens</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Cortinaire couleur de rocou, Cortinarius orellanus, très toxique.
 Cortinaire remarquable, de Berkeley, Cortinarius praestans, réputé excellent comestible.
 Cortinaire violet, Cortinarius violaceus, courant, souvent confondu avec le Pied bleu (Lepista nuda).
-Cortinarius malicorius, qui peut facilement fortement bioaccumuler le mercure[3].</t>
+Cortinarius malicorius, qui peut facilement fortement bioaccumuler le mercure.</t>
         </is>
       </c>
     </row>
@@ -546,9 +560,11 @@
           <t>Phylogénie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les progrès de la génétique permettent de mieux regrouper les espèces et de comprendre leur phylogénie[4], voire les liens entre des populations situées sur deux continents différents[5]. Ils permettront aussi de mieux identifier les espèces récemment introduites[4] ou sur le point de l'être.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les progrès de la génétique permettent de mieux regrouper les espèces et de comprendre leur phylogénie, voire les liens entre des populations situées sur deux continents différents. Ils permettront aussi de mieux identifier les espèces récemment introduites ou sur le point de l'être.
 </t>
         </is>
       </c>
@@ -577,9 +593,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon Catalogue of Life                                   (29 octobre 2013)[6] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                   (29 octobre 2013) :
 Cortinarius abditus
 Cortinarius aberrans
 Cortinarius abietinus
@@ -1938,7 +1956,7 @@
 Cortinarius marcellae
 Cortinarius margaritisporus
 Cortinarius marginato-ochrascens
-Cortinarius marginatosple</t>
+Cortinarius marginatosplende</t>
         </is>
       </c>
     </row>
